--- a/data/timeseries/raw/metrinet-calibration-records.xlsx
+++ b/data/timeseries/raw/metrinet-calibration-records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bradw\workspace\bayesian-wq-calibration\data\timeseries\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB9167F-6172-4D3D-9C9A-3DB15DF02B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049C363-59B9-44F1-B0F8-026619562E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2880" windowWidth="25605" windowHeight="16380" xr2:uid="{5BB3812C-8BE3-4C2C-92EC-D761C3FFAE3F}"/>
+    <workbookView xWindow="2685" yWindow="4260" windowWidth="25605" windowHeight="16380" xr2:uid="{5BB3812C-8BE3-4C2C-92EC-D761C3FFAE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="metrinet_calibration_records(Sh" sheetId="1" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541CF5D-C4E9-4800-B227-EFCE7BC313D7}">
   <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,7 +2858,7 @@
         <v>44853.415277777778</v>
       </c>
       <c r="D46" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E46">
         <v>0.61</v>
@@ -2893,7 +2893,7 @@
         <v>44853.415277777778</v>
       </c>
       <c r="D47" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E47">
         <v>0.56000000000000005</v>
@@ -2928,7 +2928,7 @@
         <v>44853.54583333333</v>
       </c>
       <c r="D48" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E48">
         <v>0.56999999999999995</v>
@@ -2963,7 +2963,7 @@
         <v>44853.447916666664</v>
       </c>
       <c r="D49" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E49">
         <v>0.69</v>
@@ -2998,7 +2998,7 @@
         <v>44853.55972222222</v>
       </c>
       <c r="D50" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E50">
         <v>0.63</v>
@@ -3033,7 +3033,7 @@
         <v>44853.465277777781</v>
       </c>
       <c r="D51" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E51">
         <v>0.54</v>
@@ -3068,7 +3068,7 @@
         <v>44853.488194444442</v>
       </c>
       <c r="D52" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E52">
         <v>0.39</v>
@@ -3103,7 +3103,7 @@
         <v>44853.598611111112</v>
       </c>
       <c r="D53" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E53">
         <v>0.27</v>
@@ -3138,7 +3138,7 @@
         <v>44853.538194444445</v>
       </c>
       <c r="D54" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E54">
         <v>0.6</v>
@@ -3173,7 +3173,7 @@
         <v>44853.638194444444</v>
       </c>
       <c r="D55" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E55">
         <v>0.75</v>
@@ -3208,7 +3208,7 @@
         <v>44853.385416666664</v>
       </c>
       <c r="D56" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E56">
         <v>0.67</v>
@@ -3243,7 +3243,7 @@
         <v>44853.385416666664</v>
       </c>
       <c r="D57" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E57">
         <v>0.71</v>
@@ -3278,7 +3278,7 @@
         <v>44853.692361111112</v>
       </c>
       <c r="D58" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="E58">
         <v>0.81</v>
@@ -4223,7 +4223,7 @@
         <v>44979.552083333336</v>
       </c>
       <c r="D85" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E85">
         <v>0.54</v>
@@ -4258,7 +4258,7 @@
         <v>44979.552083333336</v>
       </c>
       <c r="D86" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E86">
         <v>0.59</v>
@@ -4293,7 +4293,7 @@
         <v>44979.496527777781</v>
       </c>
       <c r="D87" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E87">
         <v>0.81</v>
@@ -4328,7 +4328,7 @@
         <v>44979.427083333336</v>
       </c>
       <c r="D88" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E88">
         <v>0.51</v>
@@ -4363,7 +4363,7 @@
         <v>44979.520833333336</v>
       </c>
       <c r="D89" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E89">
         <v>0.79</v>
@@ -4398,7 +4398,7 @@
         <v>44979.438194444447</v>
       </c>
       <c r="D90" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E90">
         <v>0.74</v>
@@ -4433,7 +4433,7 @@
         <v>44979.447916666664</v>
       </c>
       <c r="D91" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E91">
         <v>0.6</v>
@@ -4468,7 +4468,7 @@
         <v>44979.413194444445</v>
       </c>
       <c r="D92" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E92">
         <v>0.28000000000000003</v>
@@ -4503,7 +4503,7 @@
         <v>44979.458333333336</v>
       </c>
       <c r="D93" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E93">
         <v>0.73</v>
@@ -4538,7 +4538,7 @@
         <v>44979.590277777781</v>
       </c>
       <c r="D94" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E94">
         <v>0.65</v>
@@ -4573,7 +4573,7 @@
         <v>44979.395833333336</v>
       </c>
       <c r="D95" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E95">
         <v>0.74</v>
@@ -4608,7 +4608,7 @@
         <v>44979.395833333336</v>
       </c>
       <c r="D96" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E96">
         <v>0.57999999999999996</v>
@@ -4643,7 +4643,7 @@
         <v>44984.5</v>
       </c>
       <c r="D97" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E97">
         <v>0.59</v>
@@ -4672,7 +4672,7 @@
         <v>44979.638888888891</v>
       </c>
       <c r="D98" s="1">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="E98">
         <v>0.6</v>

--- a/data/timeseries/raw/metrinet-calibration-records.xlsx
+++ b/data/timeseries/raw/metrinet-calibration-records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bradw\workspace\bayesian-wq-calibration\data\timeseries\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB7565-998B-48DB-BAC0-83CA1880CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18062A1-CF6F-45FF-B6FF-8E3DEC30E637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="5475" windowWidth="21600" windowHeight="12690" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metrinet_calibration_records" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="125">
   <si>
     <t>good_calib_event</t>
   </si>
@@ -650,18 +650,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B259" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -836,7 +836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -906,7 +906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -976,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>6</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>6</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>6</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>6</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>6</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>6</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>6</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>6</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>6</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>6</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>7</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>7</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>7</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>7</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>7</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>7</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>7</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>7</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>7</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>7</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>8</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>8</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>8</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>8</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>8</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>8</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>8</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>8</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>8</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>8</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>8</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>8</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>8</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>8</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>9</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>9</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>9</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>9</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>9</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>9</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>9</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>9</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>9</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>9</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>9</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>9</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>9</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>10</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>10</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>10</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>10</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>10</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>10</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>10</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>10</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>10</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>10</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>10</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>10</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>10</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>10</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>10</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>11</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>11</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>11</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>11</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>11</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>11</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>11</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>11</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>11</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>11</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>11</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>11</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>11</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>12</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>12</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>12</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>12</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>12</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>12</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>12</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>12</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>12</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>12</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>12</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>12</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>12</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>12</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>12</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>13</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>13</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>13</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>13</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>13</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>13</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>13</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>13</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>13</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>13</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>13</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>13</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>13</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>13</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>14</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>14</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>14</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>14</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>14</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>14</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>14</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>14</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>14</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>14</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>14</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>14</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>14</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>14</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>15</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>15</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>15</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>15</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>15</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>15</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>15</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>15</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>15</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>15</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>15</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>15</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>15</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>15</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>16</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>16</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>16</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>16</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>16</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>16</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>16</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>16</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>16</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>16</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>16</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>16</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>16</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>16</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>17</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>17</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>17</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>17</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>17</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>17</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>17</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>17</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>17</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>17</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>17</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>17</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>17</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>17</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>18</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>18</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>18</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>18</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>18</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>18</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>18</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>18</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>18</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>18</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>18</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>18</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>18</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>18</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>19</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>19</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>19</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>19</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>19</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>19</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>19</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>19</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>19</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>19</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>19</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>19</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>19</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>19</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>20</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="G253">
-        <f t="shared" ref="G253:G266" si="0">E253-F253</f>
+        <f t="shared" ref="G253:G270" si="0">E253-F253</f>
         <v>6.6666666666666541E-3</v>
       </c>
       <c r="H253" t="s">
@@ -9200,7 +9200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>20</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>20</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>20</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>20</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>20</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>20</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>20</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>20</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>20</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>20</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>20</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>20</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>20</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>21</v>
       </c>
@@ -9649,24 +9649,24 @@
         <v>11</v>
       </c>
       <c r="C267" s="1">
-        <v>45616.732638888891</v>
+        <v>45642.645833333336</v>
       </c>
       <c r="D267" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E267">
-        <v>1.1000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="F267">
-        <f>AVERAGE(0.91, 0.93, 0.93)</f>
-        <v>0.92333333333333334</v>
+        <f>AVERAGE(0.55, 0.53, 0.56)</f>
+        <v>0.54666666666666675</v>
       </c>
       <c r="G267">
-        <f t="shared" ref="G267:G280" si="1">E267-F267</f>
-        <v>0.17666666666666675</v>
+        <f t="shared" si="0"/>
+        <v>-6.6666666666667096E-3</v>
       </c>
       <c r="H267" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I267">
         <v>2.11</v>
@@ -9675,7 +9675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>21</v>
       </c>
@@ -9683,24 +9683,24 @@
         <v>59</v>
       </c>
       <c r="C268" s="1">
-        <v>45616.732638888891</v>
+        <v>45642.645833333336</v>
       </c>
       <c r="D268" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E268">
-        <v>1.1499999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="F268">
-        <f>AVERAGE(0.91, 0.93, 0.93)</f>
-        <v>0.92333333333333334</v>
+        <f>AVERAGE(0.55, 0.53, 0.56)</f>
+        <v>0.54666666666666675</v>
       </c>
       <c r="G268">
-        <f t="shared" si="1"/>
-        <v>0.22666666666666657</v>
+        <f t="shared" si="0"/>
+        <v>-1.6666666666666718E-2</v>
       </c>
       <c r="H268" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I268">
         <v>2.06</v>
@@ -9709,7 +9709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>21</v>
       </c>
@@ -9717,21 +9717,21 @@
         <v>14</v>
       </c>
       <c r="C269" s="1">
-        <v>45616.663194444445</v>
+        <v>45642.645833333336</v>
       </c>
       <c r="D269" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E269">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F269">
-        <f>AVERAGE(0.89,0.88,0.88)</f>
-        <v>0.8833333333333333</v>
+        <f>AVERAGE(0.51, 0.51, 0.52)</f>
+        <v>0.51333333333333331</v>
       </c>
       <c r="G269">
-        <f t="shared" si="1"/>
-        <v>-3.3333333333332993E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.3333333333333308E-2</v>
       </c>
       <c r="H269" t="s">
         <v>12</v>
@@ -9740,10 +9740,10 @@
         <v>1.98</v>
       </c>
       <c r="J269">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>21</v>
       </c>
@@ -9751,27 +9751,33 @@
         <v>17</v>
       </c>
       <c r="C270" s="1">
-        <v>45616.515277777777</v>
+        <v>45642.426388888889</v>
       </c>
       <c r="D270" s="1">
-        <v>45621</v>
+        <v>45643</v>
+      </c>
+      <c r="E270">
+        <v>0.53</v>
       </c>
       <c r="F270">
-        <f>AVERAGE(0.83,0.84,0.87,0.88)</f>
-        <v>0.85499999999999998</v>
+        <f>AVERAGE(0.55, 0.55, 0.53)</f>
+        <v>0.54333333333333333</v>
       </c>
       <c r="G270">
-        <f t="shared" si="1"/>
-        <v>-0.85499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>-1.3333333333333308E-2</v>
+      </c>
+      <c r="H270" t="s">
+        <v>12</v>
       </c>
       <c r="I270">
         <v>1.62</v>
       </c>
       <c r="J270">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>21</v>
       </c>
@@ -9779,33 +9785,33 @@
         <v>19</v>
       </c>
       <c r="C271" s="1">
-        <v>45616.682638888888</v>
+        <v>45642.618055555555</v>
       </c>
       <c r="D271" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E271">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="F271">
-        <f>AVERAGE(0.74,0.71,0.71)</f>
-        <v>0.72000000000000008</v>
+        <f>AVERAGE(0.5, 0.51, 0.52)</f>
+        <v>0.51</v>
       </c>
       <c r="G271">
-        <f t="shared" si="1"/>
-        <v>0.12999999999999989</v>
+        <f t="shared" ref="G271:G273" si="1">E271-F271</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="H271" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I271">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="J271">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>21</v>
       </c>
@@ -9813,33 +9819,33 @@
         <v>119</v>
       </c>
       <c r="C272" s="1">
-        <v>45616.684027777781</v>
+        <v>45642.618055555555</v>
       </c>
       <c r="D272" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E272">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F272">
-        <f>AVERAGE(0.74,0.71,0.71)</f>
-        <v>0.72000000000000008</v>
+        <f>AVERAGE(0.5, 0.51, 0.52)</f>
+        <v>0.51</v>
       </c>
       <c r="G272">
         <f t="shared" si="1"/>
-        <v>0.12999999999999989</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="H272" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I272">
         <v>2.17</v>
       </c>
       <c r="J272">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>21</v>
       </c>
@@ -9847,24 +9853,24 @@
         <v>21</v>
       </c>
       <c r="C273" s="1">
-        <v>45616.530555555553</v>
+        <v>45642.439583333333</v>
       </c>
       <c r="D273" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E273">
-        <v>1.1299999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="F273">
-        <f>AVERAGE(0.87,0.87,0.87)</f>
-        <v>0.87</v>
+        <f>AVERAGE(0.56, 0.57, 0.57)</f>
+        <v>0.56666666666666654</v>
       </c>
       <c r="G273">
         <f t="shared" si="1"/>
-        <v>0.2599999999999999</v>
+        <v>-2.6666666666666505E-2</v>
       </c>
       <c r="H273" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I273">
         <v>0.69</v>
@@ -9873,7 +9879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>21</v>
       </c>
@@ -9881,21 +9887,21 @@
         <v>23</v>
       </c>
       <c r="C274" s="1">
-        <v>45616.625</v>
+        <v>45642.466666666667</v>
       </c>
       <c r="D274" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E274">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="F274">
-        <f>AVERAGE(0.72,0.72,0.73)</f>
-        <v>0.72333333333333327</v>
+        <f>AVERAGE(0.45, 0.51, 0.45)</f>
+        <v>0.47</v>
       </c>
       <c r="G274">
-        <f t="shared" si="1"/>
-        <v>-1.3333333333333308E-2</v>
+        <f t="shared" ref="G274" si="2">E274-F274</f>
+        <v>0</v>
       </c>
       <c r="H274" t="s">
         <v>12</v>
@@ -9904,10 +9910,10 @@
         <v>2.08</v>
       </c>
       <c r="J274">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>21</v>
       </c>
@@ -9915,24 +9921,24 @@
         <v>25</v>
       </c>
       <c r="C275" s="1">
-        <v>45616.491666666669</v>
+        <v>45642.401388888888</v>
       </c>
       <c r="D275" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E275">
-        <v>0.83</v>
+        <v>0.4</v>
       </c>
       <c r="F275">
-        <f>AVERAGE(0.53,0.5,0.53,0.54)</f>
-        <v>0.52500000000000002</v>
+        <f>AVERAGE(0.38, 0.39, 0.43)</f>
+        <v>0.39999999999999997</v>
       </c>
       <c r="G275">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999994</v>
+        <f t="shared" ref="G275:G280" si="3">E275-F275</f>
+        <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I275">
         <v>1.65</v>
@@ -9941,7 +9947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>21</v>
       </c>
@@ -9949,21 +9955,21 @@
         <v>26</v>
       </c>
       <c r="C276" s="1">
-        <v>45616.640277777777</v>
+        <v>45642.517361111109</v>
       </c>
       <c r="D276" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E276">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="F276">
-        <f>AVERAGE(0.87,0.82,0.85)</f>
-        <v>0.84666666666666668</v>
+        <f>AVERAGE(0.5, 0.49, 0.49)</f>
+        <v>0.49333333333333335</v>
       </c>
       <c r="G276">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333308E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.6666666666666672E-2</v>
       </c>
       <c r="H276" t="s">
         <v>12</v>
@@ -9972,10 +9978,10 @@
         <v>1.89</v>
       </c>
       <c r="J276">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>21</v>
       </c>
@@ -9983,33 +9989,33 @@
         <v>122</v>
       </c>
       <c r="C277" s="1">
-        <v>45616.638888888891</v>
+        <v>45642.517361111109</v>
       </c>
       <c r="D277" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E277">
-        <v>0.91</v>
+        <v>0.51</v>
       </c>
       <c r="F277">
-        <f>AVERAGE(0.87,0.82,0.85)</f>
-        <v>0.84666666666666668</v>
+        <f>AVERAGE(0.5, 0.49, 0.49)</f>
+        <v>0.49333333333333335</v>
       </c>
       <c r="G277">
-        <f t="shared" si="1"/>
-        <v>6.3333333333333353E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.6666666666666663E-2</v>
       </c>
       <c r="H277" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I277">
         <v>1.9</v>
       </c>
       <c r="J277">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>21</v>
       </c>
@@ -10017,33 +10023,33 @@
         <v>27</v>
       </c>
       <c r="C278" s="1">
-        <v>45616.755555555559</v>
+        <v>45642.663194444445</v>
       </c>
       <c r="D278" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E278">
-        <v>1.01</v>
+        <v>0.63</v>
       </c>
       <c r="F278">
-        <f>AVERAGE(0.96,1.01,0.94)</f>
-        <v>0.97000000000000008</v>
+        <f>AVERAGE(0.64, 0.65, 0.63)</f>
+        <v>0.64</v>
       </c>
       <c r="G278">
-        <f t="shared" si="1"/>
-        <v>3.9999999999999925E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="H278" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I278">
         <v>1.96</v>
       </c>
       <c r="J278">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>21</v>
       </c>
@@ -10051,33 +10057,33 @@
         <v>29</v>
       </c>
       <c r="C279" s="1">
-        <v>45616.402777777781</v>
+        <v>45642.380555555559</v>
       </c>
       <c r="D279" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F279">
-        <f>AVERAGE(0.9,0.93,0.91)</f>
-        <v>0.91333333333333344</v>
+        <f>AVERAGE(0.66, 0.66, 0.65)</f>
+        <v>0.65666666666666673</v>
       </c>
       <c r="G279">
-        <f t="shared" si="1"/>
-        <v>8.6666666666666559E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.6666666666666754E-2</v>
       </c>
       <c r="H279" t="s">
         <v>15</v>
       </c>
       <c r="I279">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="J279">
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>21</v>
       </c>
@@ -10085,27 +10091,27 @@
         <v>67</v>
       </c>
       <c r="C280" s="1">
-        <v>45616.402777777781</v>
+        <v>45642.380555555559</v>
       </c>
       <c r="D280" s="1">
-        <v>45621</v>
+        <v>45643</v>
       </c>
       <c r="E280">
-        <v>1.03</v>
+        <v>0.59</v>
       </c>
       <c r="F280">
-        <f>AVERAGE(0.9,0.93,0.91)</f>
-        <v>0.91333333333333344</v>
+        <f>AVERAGE(0.66, 0.66, 0.65)</f>
+        <v>0.65666666666666673</v>
       </c>
       <c r="G280">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666659</v>
+        <f t="shared" si="3"/>
+        <v>-6.6666666666666763E-2</v>
       </c>
       <c r="H280" t="s">
         <v>15</v>
       </c>
       <c r="I280">
-        <v>2.0099999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="J280">
         <v>10</v>

--- a/data/timeseries/raw/metrinet-calibration-records.xlsx
+++ b/data/timeseries/raw/metrinet-calibration-records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bradw\workspace\bayesian-wq-calibration\data\timeseries\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwjenks/Code/PhD/bayesian-wq-calibration/data/timeseries/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18062A1-CF6F-45FF-B6FF-8E3DEC30E637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1200ED-FD1D-AA4B-B6A3-693F2F7C0BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metrinet_calibration_records" sheetId="1" r:id="rId1"/>
@@ -650,18 +650,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F277" sqref="F277"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M271" sqref="M271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -836,7 +836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -906,7 +906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -976,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>7</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>9</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>9</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>9</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>9</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>9</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>11</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>11</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>11</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>11</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>11</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>11</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>11</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>11</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>11</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>11</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>12</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>12</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>12</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>12</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>12</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>12</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>12</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>12</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>12</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>12</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>12</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>12</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>12</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>12</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>13</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>13</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>13</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>13</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>13</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>13</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>13</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>13</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>13</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>13</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>13</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>13</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>13</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>13</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>14</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>14</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>14</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>14</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>14</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>14</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>14</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>14</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>14</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>14</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>14</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>14</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>14</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>14</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>15</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>15</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>15</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>15</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>15</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>15</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>15</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>15</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>15</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>15</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>15</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>15</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>15</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>15</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>16</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>16</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>16</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>16</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>16</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>16</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>16</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>16</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>16</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>16</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>16</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>16</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>16</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>16</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>17</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>17</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>17</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>17</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>17</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>17</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>17</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>17</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>17</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>17</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>17</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>17</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>17</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>17</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>18</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>18</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>18</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>18</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>18</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>18</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>18</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>18</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>18</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>18</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>18</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>18</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>18</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>18</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>19</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>19</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>19</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>19</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>19</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>19</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>19</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>19</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>19</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>19</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>19</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>19</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>19</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>19</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>20</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>20</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>20</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>20</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>20</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>20</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>20</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>20</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>20</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>20</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>20</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>20</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>20</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>20</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>21</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>21</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>21</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>21</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>21</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>21</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>21</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>21</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>21</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>21</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>21</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>21</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>21</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>21</v>
       </c>

--- a/data/timeseries/raw/metrinet-calibration-records.xlsx
+++ b/data/timeseries/raw/metrinet-calibration-records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwjenks/Code/PhD/bayesian-wq-calibration/data/timeseries/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1200ED-FD1D-AA4B-B6A3-693F2F7C0BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44E690-6AB8-0645-8FE2-E2B0CE3DEAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="127">
   <si>
     <t>good_calib_event</t>
   </si>
@@ -83,9 +83,6 @@
     <t>off due to corroded cable/connection on Q52. No cal, sensor still polarising</t>
   </si>
   <si>
-    <t>BW2</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>no cal req</t>
   </si>
   <si>
-    <t>BW5</t>
-  </si>
-  <si>
     <t>cal'd to 0.70</t>
   </si>
   <si>
@@ -414,6 +408,18 @@
   </si>
   <si>
     <t>Cal'd to 0.80</t>
+  </si>
+  <si>
+    <t>BW5_1</t>
+  </si>
+  <si>
+    <t>BW2_1</t>
+  </si>
+  <si>
+    <t>BW2_2</t>
+  </si>
+  <si>
+    <t>BW5_2</t>
   </si>
 </sst>
 </file>
@@ -648,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K280"/>
+  <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M271" sqref="M271"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1">
         <v>44650.505555555603</v>
@@ -754,7 +760,7 @@
         <v>0.13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>0.68</v>
@@ -763,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -771,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>44650.423611111102</v>
@@ -789,7 +795,7 @@
         <v>-0.19666666699999999</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>1.25</v>
@@ -798,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -806,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>44650.555555555598</v>
@@ -833,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -841,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1">
         <v>44650.441666666702</v>
@@ -859,7 +865,7 @@
         <v>-0.25</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>0.44</v>
@@ -868,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -876,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>44650.461805555598</v>
@@ -894,7 +900,7 @@
         <v>-0.24333333300000001</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>0.42</v>
@@ -903,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -911,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>44650.395833333299</v>
@@ -938,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -946,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>44650.4819444444</v>
@@ -964,7 +970,7 @@
         <v>-9.3333333000000004E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>2.2000000000000002</v>
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -981,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>44650.635416666701</v>
@@ -1008,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1016,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>44650.677083333299</v>
@@ -1034,7 +1040,7 @@
         <v>-5.3333332999999997E-2</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11">
         <v>0.9</v>
@@ -1043,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1051,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>44650.375</v>
@@ -1069,7 +1075,7 @@
         <v>6.3333333000000006E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1078,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1104,7 +1110,7 @@
         <v>-0.13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>0.35</v>
@@ -1113,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1121,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1">
         <v>44692.525694444397</v>
@@ -1148,7 +1154,7 @@
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1156,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>44692.435416666704</v>
@@ -1174,7 +1180,7 @@
         <v>-0.10666666700000001</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>0.99</v>
@@ -1183,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1191,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>44692.545138888898</v>
@@ -1218,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1226,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1">
         <v>44692.440972222197</v>
@@ -1244,7 +1250,7 @@
         <v>-0.176666667</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17">
         <v>0.32</v>
@@ -1253,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1261,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>44692.461111111101</v>
@@ -1288,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1296,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>44692.404166666704</v>
@@ -1323,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1331,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>44692.476388888899</v>
@@ -1358,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1366,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>44692.629166666702</v>
@@ -1384,7 +1390,7 @@
         <v>-0.12666666700000001</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21">
         <v>0.47</v>
@@ -1393,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1401,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>44692.660416666702</v>
@@ -1419,7 +1425,7 @@
         <v>-0.29333333299999997</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22">
         <v>0.49</v>
@@ -1428,7 +1434,7 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1436,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>44692.396527777797</v>
@@ -1454,7 +1460,7 @@
         <v>-0.123333333</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23">
         <v>0.85</v>
@@ -1463,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1489,7 +1495,7 @@
         <v>-7.6666666999999994E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24">
         <v>0.32</v>
@@ -1498,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1506,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1">
         <v>44740.472222222197</v>
@@ -1524,7 +1530,7 @@
         <v>-0.10666666700000001</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25">
         <v>0.54</v>
@@ -1533,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1541,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1">
         <v>44740.4</v>
@@ -1568,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1576,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
         <v>44740.486111111102</v>
@@ -1603,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1611,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1">
         <v>44740.409722222197</v>
@@ -1638,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1646,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1">
         <v>44740.430555555598</v>
@@ -1664,7 +1670,7 @@
         <v>-0.08</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29">
         <v>0.84</v>
@@ -1673,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1681,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>44740.385416666701</v>
@@ -1708,7 +1714,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1716,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <v>44740.458333333299</v>
@@ -1734,7 +1740,7 @@
         <v>-0.133333333</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31">
         <v>1.74</v>
@@ -1743,7 +1749,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1751,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>44740.520833333299</v>
@@ -1778,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1786,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <v>44740.541666666701</v>
@@ -1813,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1821,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <v>44740.375</v>
@@ -1839,7 +1845,7 @@
         <v>-0.11333333299999999</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34">
         <v>0.73</v>
@@ -1848,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1874,7 +1880,7 @@
         <v>1.6666667E-2</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35">
         <v>0.32</v>
@@ -1883,7 +1889,7 @@
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1891,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1">
         <v>44809.609027777798</v>
@@ -1918,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1926,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1">
         <v>44809.513888888898</v>
@@ -1953,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1961,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
         <v>44809.545138888898</v>
@@ -1988,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1996,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1">
         <v>44809.658333333296</v>
@@ -2014,7 +2020,7 @@
         <v>-0.176666667</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39">
         <v>0.32</v>
@@ -2023,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2031,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
         <v>44809.576388888898</v>
@@ -2049,7 +2055,7 @@
         <v>1.3333332999999999E-2</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40">
         <v>0.84</v>
@@ -2058,7 +2064,7 @@
         <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2066,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
         <v>44809.479166666701</v>
@@ -2093,7 +2099,7 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2101,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
         <v>44809.59375</v>
@@ -2119,7 +2125,7 @@
         <v>-0.11333333299999999</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42">
         <v>1.4</v>
@@ -2128,7 +2134,7 @@
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2136,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1">
         <v>44809.7097222222</v>
@@ -2163,7 +2169,7 @@
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2171,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1">
         <v>44809.375</v>
@@ -2189,7 +2195,7 @@
         <v>-0.12666666700000001</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44">
         <v>0.73</v>
@@ -2198,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -2206,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1">
         <v>44809.7409722222</v>
@@ -2233,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2259,7 +2265,7 @@
         <v>-0.12</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46">
         <v>1.17</v>
@@ -2268,7 +2274,7 @@
         <v>14</v>
       </c>
       <c r="K46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -2276,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1">
         <v>44853.4152777778</v>
@@ -2294,7 +2300,7 @@
         <v>-0.17</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47">
         <v>0.7</v>
@@ -2303,7 +2309,7 @@
         <v>14</v>
       </c>
       <c r="K47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2311,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1">
         <v>44853.545833333301</v>
@@ -2329,7 +2335,7 @@
         <v>-8.6666667000000003E-2</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48">
         <v>0.59</v>
@@ -2338,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2346,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1">
         <v>44853.447916666701</v>
@@ -2373,7 +2379,7 @@
         <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2381,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>44853.559722222199</v>
@@ -2408,7 +2414,7 @@
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2416,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1">
         <v>44853.465277777803</v>
@@ -2434,7 +2440,7 @@
         <v>-0.10666666700000001</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51">
         <v>1.83</v>
@@ -2443,7 +2449,7 @@
         <v>15</v>
       </c>
       <c r="K51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2451,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1">
         <v>44853.488194444399</v>
@@ -2478,7 +2484,7 @@
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2486,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
         <v>44853.598611111098</v>
@@ -2513,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2521,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1">
         <v>44853.538194444402</v>
@@ -2539,7 +2545,7 @@
         <v>-7.3333333000000001E-2</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -2548,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2556,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1">
         <v>44853.6381944444</v>
@@ -2574,7 +2580,7 @@
         <v>-0.05</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55">
         <v>0.48</v>
@@ -2583,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2591,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1">
         <v>44853.385416666701</v>
@@ -2609,7 +2615,7 @@
         <v>-6.3333333000000006E-2</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56">
         <v>1.17</v>
@@ -2618,7 +2624,7 @@
         <v>15</v>
       </c>
       <c r="K56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2626,7 +2632,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1">
         <v>44853.385416666701</v>
@@ -2644,7 +2650,7 @@
         <v>-2.3333333000000001E-2</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57">
         <v>1.71</v>
@@ -2653,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2661,7 +2667,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1">
         <v>44853.692361111098</v>
@@ -2679,7 +2685,7 @@
         <v>-0.13</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58">
         <v>1.27</v>
@@ -2688,7 +2694,7 @@
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2714,7 +2720,7 @@
         <v>-0.16500000000000001</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59">
         <v>0.79</v>
@@ -2723,7 +2729,7 @@
         <v>7</v>
       </c>
       <c r="K59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2731,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1">
         <v>44916.465277777803</v>
@@ -2749,7 +2755,7 @@
         <v>-0.17499999999999999</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60">
         <v>0.4</v>
@@ -2758,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="K60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -2766,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C61" s="1">
         <v>44916.552083333299</v>
@@ -2784,7 +2790,7 @@
         <v>-0.09</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61">
         <v>0.43</v>
@@ -2793,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="K61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2801,7 +2807,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1">
         <v>44916.493055555598</v>
@@ -2828,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2836,7 +2842,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1">
         <v>44916.5625</v>
@@ -2863,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -2871,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1">
         <v>44916.5</v>
@@ -2898,7 +2904,7 @@
         <v>7</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -2906,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1">
         <v>44916.517361111102</v>
@@ -2933,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -2941,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1">
         <v>44916.486111111102</v>
@@ -2968,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="K66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -2976,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
         <v>44916.53125</v>
@@ -2994,7 +3000,7 @@
         <v>7.6666666999999994E-2</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67">
         <v>2.34</v>
@@ -3003,7 +3009,7 @@
         <v>8</v>
       </c>
       <c r="K67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -3011,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1">
         <v>44916.621527777803</v>
@@ -3029,7 +3035,7 @@
         <v>-0.133333333</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I68">
         <v>0.34</v>
@@ -3038,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="K68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3046,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
         <v>44916.444444444402</v>
@@ -3064,7 +3070,7 @@
         <v>0.19750000000000001</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69">
         <v>2.44</v>
@@ -3073,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="K69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3081,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1">
         <v>44916.444444444402</v>
@@ -3099,7 +3105,7 @@
         <v>0.1875</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I70">
         <v>2.06</v>
@@ -3108,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="K70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3116,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1">
         <v>44916.635416666701</v>
@@ -3143,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="K71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3169,7 +3175,7 @@
         <v>-0.125</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72">
         <v>0.81</v>
@@ -3178,7 +3184,7 @@
         <v>7</v>
       </c>
       <c r="K72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3186,7 +3192,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C73" s="1">
         <v>44952.496527777803</v>
@@ -3204,7 +3210,7 @@
         <v>-9.5000000000000001E-2</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I73">
         <v>1.91</v>
@@ -3213,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="K73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3221,7 +3227,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C74" s="1">
         <v>44942.548611111102</v>
@@ -3248,7 +3254,7 @@
         <v>9</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -3256,7 +3262,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
         <v>44942.465277777803</v>
@@ -3283,7 +3289,7 @@
         <v>8</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3291,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1">
         <v>44942.565972222197</v>
@@ -3318,7 +3324,7 @@
         <v>9</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3326,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C77" s="1">
         <v>44942.482638888898</v>
@@ -3353,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3361,7 +3367,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C78" s="1">
         <v>44942.496527777803</v>
@@ -3388,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3396,7 +3402,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1">
         <v>44942.458333333299</v>
@@ -3423,7 +3429,7 @@
         <v>8</v>
       </c>
       <c r="K79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -3431,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1">
         <v>44942.541666666701</v>
@@ -3458,7 +3464,7 @@
         <v>8</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -3466,7 +3472,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1">
         <v>44942.618055555598</v>
@@ -3484,7 +3490,7 @@
         <v>0.123333333</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I81">
         <v>0.42</v>
@@ -3493,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="K81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -3501,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1">
         <v>44952.486111111102</v>
@@ -3528,7 +3534,7 @@
         <v>7</v>
       </c>
       <c r="K82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -3536,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C83" s="1">
         <v>44952.486111111102</v>
@@ -3554,7 +3560,7 @@
         <v>-0.17249999999999999</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I83">
         <v>0.39</v>
@@ -3563,7 +3569,7 @@
         <v>7</v>
       </c>
       <c r="K83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -3571,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C84" s="1">
         <v>44942.444444444402</v>
@@ -3589,7 +3595,7 @@
         <v>-0.16</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I84">
         <v>1.1200000000000001</v>
@@ -3598,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="K84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -3624,7 +3630,7 @@
         <v>-0.235714286</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I85">
         <v>0.57999999999999996</v>
@@ -3633,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="K85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3641,7 +3647,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C86" s="1">
         <v>44979.552083333299</v>
@@ -3659,7 +3665,7 @@
         <v>-0.18571428600000001</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I86">
         <v>1.49</v>
@@ -3668,7 +3674,7 @@
         <v>10</v>
       </c>
       <c r="K86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -3676,7 +3682,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C87" s="1">
         <v>44979.496527777803</v>
@@ -3703,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="K87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -3711,7 +3717,7 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="1">
         <v>44979.427083333299</v>
@@ -3729,7 +3735,7 @@
         <v>-0.263333333</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I88">
         <v>0.51</v>
@@ -3738,7 +3744,7 @@
         <v>10</v>
       </c>
       <c r="K88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -3746,7 +3752,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1">
         <v>44979.520833333299</v>
@@ -3764,7 +3770,7 @@
         <v>-5.3333332999999997E-2</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I89">
         <v>1.9</v>
@@ -3773,7 +3779,7 @@
         <v>10</v>
       </c>
       <c r="K89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -3781,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C90" s="1">
         <v>44979.438194444498</v>
@@ -3808,7 +3814,7 @@
         <v>10</v>
       </c>
       <c r="K90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -3816,7 +3822,7 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1">
         <v>44979.447916666701</v>
@@ -3843,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -3851,7 +3857,7 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1">
         <v>44979.413194444402</v>
@@ -3869,7 +3875,7 @@
         <v>-0.26</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I92">
         <v>0.38</v>
@@ -3878,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="K92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3886,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C93" s="1">
         <v>44979.458333333299</v>
@@ -3904,7 +3910,7 @@
         <v>-8.6666667000000003E-2</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I93">
         <v>2.09</v>
@@ -3913,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="K93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -3921,7 +3927,7 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C94" s="1">
         <v>44979.590277777803</v>
@@ -3939,7 +3945,7 @@
         <v>-0.22333333299999999</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I94">
         <v>0.31</v>
@@ -3948,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="K94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -3956,7 +3962,7 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C95" s="1">
         <v>44979.395833333299</v>
@@ -3974,7 +3980,7 @@
         <v>-8.7499999999999994E-2</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I95">
         <v>2.2200000000000002</v>
@@ -3983,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="K95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3991,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C96" s="1">
         <v>44979.395833333299</v>
@@ -4009,7 +4015,7 @@
         <v>-0.2475</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I96">
         <v>0.27</v>
@@ -4018,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="K96" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -4026,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C97" s="1">
         <v>44984.5</v>
@@ -4044,10 +4050,10 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -4055,7 +4061,7 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C98" s="1">
         <v>44979.638888888898</v>
@@ -4073,7 +4079,7 @@
         <v>-0.3</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I98">
         <v>0.64</v>
@@ -4082,7 +4088,7 @@
         <v>9</v>
       </c>
       <c r="K98" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -4108,7 +4114,7 @@
         <v>-0.3</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I99">
         <v>0.33</v>
@@ -4117,7 +4123,7 @@
         <v>15</v>
       </c>
       <c r="K99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -4125,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C100" s="1">
         <v>45061.392361111102</v>
@@ -4143,7 +4149,7 @@
         <v>-0.25</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I100">
         <v>0.92</v>
@@ -4152,7 +4158,7 @@
         <v>16</v>
       </c>
       <c r="K100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4160,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C101" s="1">
         <v>45061.53125</v>
@@ -4187,7 +4193,7 @@
         <v>16</v>
       </c>
       <c r="K101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,7 +4201,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="1">
         <v>45061.420138888898</v>
@@ -4213,7 +4219,7 @@
         <v>-0.116666667</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I102">
         <v>0.41</v>
@@ -4222,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="K102" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -4230,7 +4236,7 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103" s="1">
         <v>45061.541666666701</v>
@@ -4248,7 +4254,7 @@
         <v>-5.6666666999999997E-2</v>
       </c>
       <c r="H103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I103">
         <v>1.59</v>
@@ -4257,7 +4263,7 @@
         <v>16</v>
       </c>
       <c r="K103" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4265,7 +4271,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C104" s="1">
         <v>45061.4375</v>
@@ -4283,7 +4289,7 @@
         <v>-0.06</v>
       </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I104">
         <v>1.63</v>
@@ -4292,7 +4298,7 @@
         <v>16</v>
       </c>
       <c r="K104" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -4300,7 +4306,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C105" s="1">
         <v>45061.451388888898</v>
@@ -4327,7 +4333,7 @@
         <v>16</v>
       </c>
       <c r="K105" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -4335,7 +4341,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C106" s="1">
         <v>45061.409722222197</v>
@@ -4362,7 +4368,7 @@
         <v>16</v>
       </c>
       <c r="K106" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -4370,7 +4376,7 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C107" s="1">
         <v>45061.517361111102</v>
@@ -4388,7 +4394,7 @@
         <v>-5.3333332999999997E-2</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I107">
         <v>1.9</v>
@@ -4397,7 +4403,7 @@
         <v>15</v>
       </c>
       <c r="K107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -4405,7 +4411,7 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C108" s="1">
         <v>45061.565972222197</v>
@@ -4423,7 +4429,7 @@
         <v>-0.21333333300000001</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I108">
         <v>0.23</v>
@@ -4432,7 +4438,7 @@
         <v>15</v>
       </c>
       <c r="K108" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4440,7 +4446,7 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C109" s="1">
         <v>45061.378472222197</v>
@@ -4467,7 +4473,7 @@
         <v>16</v>
       </c>
       <c r="K109" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -4475,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C110" s="1">
         <v>45061.378472222197</v>
@@ -4502,7 +4508,7 @@
         <v>15</v>
       </c>
       <c r="K110" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -4510,7 +4516,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C111" s="1">
         <v>45061.635416666701</v>
@@ -4528,7 +4534,7 @@
         <v>-0.44666666700000002</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I111">
         <v>0.26</v>
@@ -4537,7 +4543,7 @@
         <v>15</v>
       </c>
       <c r="K111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -4563,7 +4569,7 @@
         <v>-0.123333333</v>
       </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I112">
         <v>0.24</v>
@@ -4572,7 +4578,7 @@
         <v>21</v>
       </c>
       <c r="K112" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -4580,7 +4586,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C113" s="1">
         <v>45096.524305555598</v>
@@ -4598,7 +4604,7 @@
         <v>-4.3333333000000002E-2</v>
       </c>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I113">
         <v>0.9</v>
@@ -4607,7 +4613,7 @@
         <v>21</v>
       </c>
       <c r="K113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -4615,7 +4621,7 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C114" s="1">
         <v>45096.486111111102</v>
@@ -4633,7 +4639,7 @@
         <v>-5.6666666999999997E-2</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I114">
         <v>0.33</v>
@@ -4642,7 +4648,7 @@
         <v>22</v>
       </c>
       <c r="K114" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4650,7 +4656,7 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="1">
         <v>45096.416666666701</v>
@@ -4668,7 +4674,7 @@
         <v>-7.3333333000000001E-2</v>
       </c>
       <c r="H115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I115">
         <v>0.41</v>
@@ -4677,7 +4683,7 @@
         <v>21</v>
       </c>
       <c r="K115" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -4685,7 +4691,7 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116" s="1">
         <v>45096.5</v>
@@ -4703,7 +4709,7 @@
         <v>-5.6666666999999997E-2</v>
       </c>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I116">
         <v>1.43</v>
@@ -4712,7 +4718,7 @@
         <v>22</v>
       </c>
       <c r="K116" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -4720,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1">
         <v>45096.423611111102</v>
@@ -4752,7 +4758,7 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C118" s="1">
         <v>45096.4375</v>
@@ -4770,7 +4776,7 @@
         <v>-0.16666666699999999</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I118">
         <v>0.5</v>
@@ -4779,7 +4785,7 @@
         <v>21</v>
       </c>
       <c r="K118" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4787,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C119" s="1">
         <v>45096.388888888898</v>
@@ -4814,7 +4820,7 @@
         <v>21</v>
       </c>
       <c r="K119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -4822,7 +4828,7 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C120" s="1">
         <v>45096.472222222197</v>
@@ -4840,7 +4846,7 @@
         <v>-0.08</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I120">
         <v>1.62</v>
@@ -4849,7 +4855,7 @@
         <v>21</v>
       </c>
       <c r="K120" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -4857,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C121" s="1">
         <v>45096.534722222197</v>
@@ -4884,7 +4890,7 @@
         <v>21</v>
       </c>
       <c r="K121" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -4892,7 +4898,7 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C122" s="1">
         <v>45096.375</v>
@@ -4910,7 +4916,7 @@
         <v>-4.2500000000000003E-2</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I122">
         <v>1.82</v>
@@ -4919,7 +4925,7 @@
         <v>21</v>
       </c>
       <c r="K122" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -4927,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C123" s="1">
         <v>45096.375</v>
@@ -4945,7 +4951,7 @@
         <v>-0.13250000000000001</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I123">
         <v>0.28000000000000003</v>
@@ -4954,7 +4960,7 @@
         <v>21</v>
       </c>
       <c r="K123" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4962,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C124" s="1">
         <v>45096.597222222197</v>
@@ -4989,7 +4995,7 @@
         <v>21</v>
       </c>
       <c r="K124" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
@@ -4997,7 +5003,7 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C125" s="1">
         <v>45104.423611111102</v>
@@ -5015,7 +5021,7 @@
         <v>-0.35</v>
       </c>
       <c r="H125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I125">
         <v>0.89</v>
@@ -5024,7 +5030,7 @@
         <v>20</v>
       </c>
       <c r="K125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -5032,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C126" s="1">
         <v>45104.392361111102</v>
@@ -5059,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="K126" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -5085,7 +5091,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I127">
         <v>0.39</v>
@@ -5094,7 +5100,7 @@
         <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -5102,7 +5108,7 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C128" s="1">
         <v>45141.552083333299</v>
@@ -5120,7 +5126,7 @@
         <v>0.185</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I128">
         <v>1.21</v>
@@ -5129,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="K128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -5137,7 +5143,7 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C129" s="1">
         <v>45141.520833333299</v>
@@ -5155,7 +5161,7 @@
         <v>8.6666667000000003E-2</v>
       </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I129">
         <v>0.4</v>
@@ -5164,7 +5170,7 @@
         <v>19</v>
       </c>
       <c r="K129" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -5172,7 +5178,7 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" s="1">
         <v>45141.430555555598</v>
@@ -5190,7 +5196,7 @@
         <v>0.16666666699999999</v>
       </c>
       <c r="H130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I130">
         <v>0.44</v>
@@ -5199,7 +5205,7 @@
         <v>19</v>
       </c>
       <c r="K130" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -5207,7 +5213,7 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C131" s="1">
         <v>45141.534722222197</v>
@@ -5234,7 +5240,7 @@
         <v>19</v>
       </c>
       <c r="K131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -5242,7 +5248,7 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C132" s="1">
         <v>45141.444444444402</v>
@@ -5269,7 +5275,7 @@
         <v>19</v>
       </c>
       <c r="K132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -5277,7 +5283,7 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C133" s="1">
         <v>45141.458333333299</v>
@@ -5304,7 +5310,7 @@
         <v>19</v>
       </c>
       <c r="K133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -5312,7 +5318,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C134" s="1">
         <v>45141.413194444402</v>
@@ -5339,7 +5345,7 @@
         <v>20</v>
       </c>
       <c r="K134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -5347,7 +5353,7 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C135" s="1">
         <v>45141.479166666701</v>
@@ -5374,7 +5380,7 @@
         <v>19</v>
       </c>
       <c r="K135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -5382,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C136" s="1">
         <v>45141.569444444402</v>
@@ -5409,7 +5415,7 @@
         <v>19</v>
       </c>
       <c r="K136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -5417,7 +5423,7 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C137" s="1">
         <v>45141.395833333299</v>
@@ -5444,7 +5450,7 @@
         <v>19</v>
       </c>
       <c r="K137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -5452,7 +5458,7 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C138" s="1">
         <v>45141.395833333299</v>
@@ -5470,7 +5476,7 @@
         <v>0.14249999999999999</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I138">
         <v>0.35</v>
@@ -5479,7 +5485,7 @@
         <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -5487,7 +5493,7 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C139" s="1">
         <v>45141.59375</v>
@@ -5505,7 +5511,7 @@
         <v>0.15</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I139">
         <v>0.86</v>
@@ -5514,7 +5520,7 @@
         <v>18</v>
       </c>
       <c r="K139" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -5540,7 +5546,7 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I140">
         <v>1.8</v>
@@ -5549,7 +5555,7 @@
         <v>9</v>
       </c>
       <c r="K140" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -5557,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C141" s="1">
         <v>45348.402777777803</v>
@@ -5575,7 +5581,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I141">
         <v>1.78</v>
@@ -5584,7 +5590,7 @@
         <v>9</v>
       </c>
       <c r="K141" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -5592,7 +5598,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C142" s="1">
         <v>45348.472222222197</v>
@@ -5610,7 +5616,7 @@
         <v>9.3333333000000004E-2</v>
       </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I142">
         <v>0.39</v>
@@ -5619,7 +5625,7 @@
         <v>9</v>
       </c>
       <c r="K142" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -5627,7 +5633,7 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="1">
         <v>45348.423611111102</v>
@@ -5654,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="K143" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -5662,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144" s="1">
         <v>45348.486111111102</v>
@@ -5680,7 +5686,7 @@
         <v>0.59</v>
       </c>
       <c r="H144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I144">
         <v>1.78</v>
@@ -5689,7 +5695,7 @@
         <v>9</v>
       </c>
       <c r="K144" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -5697,7 +5703,7 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C145" s="1">
         <v>45348.486111111102</v>
@@ -5715,7 +5721,7 @@
         <v>0.52</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I145">
         <v>1.68</v>
@@ -5724,7 +5730,7 @@
         <v>9</v>
       </c>
       <c r="K145" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -5732,7 +5738,7 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C146" s="1">
         <v>45348.4375</v>
@@ -5750,7 +5756,7 @@
         <v>8.6666667000000003E-2</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I146">
         <v>1.87</v>
@@ -5759,7 +5765,7 @@
         <v>9</v>
       </c>
       <c r="K146" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -5767,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C147" s="1">
         <v>45348.447916666701</v>
@@ -5794,7 +5800,7 @@
         <v>9</v>
       </c>
       <c r="K147" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -5802,7 +5808,7 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C148" s="1">
         <v>45344.3930555556</v>
@@ -5820,7 +5826,7 @@
         <v>-0.09</v>
       </c>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I148">
         <v>0.47</v>
@@ -5829,7 +5835,7 @@
         <v>11</v>
       </c>
       <c r="K148" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -5837,7 +5843,7 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" s="1">
         <v>45348.458333333299</v>
@@ -5855,7 +5861,7 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="H149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I149">
         <v>1.97</v>
@@ -5864,7 +5870,7 @@
         <v>9</v>
       </c>
       <c r="K149" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -5872,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C150" s="1">
         <v>45348.458333333299</v>
@@ -5890,7 +5896,7 @@
         <v>0.435</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I150">
         <v>1.73</v>
@@ -5899,7 +5905,7 @@
         <v>9</v>
       </c>
       <c r="K150" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -5907,7 +5913,7 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C151" s="1">
         <v>45344.666666666701</v>
@@ -5925,7 +5931,7 @@
         <v>-0.19666666699999999</v>
       </c>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I151">
         <v>0.54</v>
@@ -5934,7 +5940,7 @@
         <v>10</v>
       </c>
       <c r="K151" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -5942,7 +5948,7 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C152" s="1">
         <v>45348.388888888898</v>
@@ -5960,7 +5966,7 @@
         <v>0.75</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I152">
         <v>2.0099999999999998</v>
@@ -5969,7 +5975,7 @@
         <v>9</v>
       </c>
       <c r="K152" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -5977,7 +5983,7 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C153" s="1">
         <v>45348.388888888898</v>
@@ -5995,7 +6001,7 @@
         <v>0.72</v>
       </c>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I153">
         <v>1.96</v>
@@ -6004,7 +6010,7 @@
         <v>9</v>
       </c>
       <c r="K153" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -6012,7 +6018,7 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C154" s="1">
         <v>45345.395833333299</v>
@@ -6030,7 +6036,7 @@
         <v>-0.25</v>
       </c>
       <c r="H154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I154">
         <v>0.43</v>
@@ -6039,7 +6045,7 @@
         <v>9</v>
       </c>
       <c r="K154" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -6079,7 +6085,7 @@
         <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C156" s="1">
         <v>45372.401388888902</v>
@@ -6111,7 +6117,7 @@
         <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C157" s="1">
         <v>45372.618055555598</v>
@@ -6129,7 +6135,7 @@
         <v>-0.203333333</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I157">
         <v>0.28999999999999998</v>
@@ -6143,7 +6149,7 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="1">
         <v>45372.496527777803</v>
@@ -6161,7 +6167,7 @@
         <v>-0.12</v>
       </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I158">
         <v>0.26</v>
@@ -6175,7 +6181,7 @@
         <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C159" s="1">
         <v>45372.640972222202</v>
@@ -6193,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I159">
         <v>1.69</v>
@@ -6207,7 +6213,7 @@
         <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C160" s="1">
         <v>45372.640972222202</v>
@@ -6239,7 +6245,7 @@
         <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C161" s="1">
         <v>45372.527083333298</v>
@@ -6271,7 +6277,7 @@
         <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C162" s="1">
         <v>45372.572916666701</v>
@@ -6289,7 +6295,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I162">
         <v>0.61</v>
@@ -6303,7 +6309,7 @@
         <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C163" s="1">
         <v>45372.472222222197</v>
@@ -6335,7 +6341,7 @@
         <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C164" s="1">
         <v>45372.595138888901</v>
@@ -6353,7 +6359,7 @@
         <v>-0.06</v>
       </c>
       <c r="H164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I164">
         <v>1.7</v>
@@ -6367,7 +6373,7 @@
         <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C165" s="1">
         <v>45372.595138888901</v>
@@ -6385,7 +6391,7 @@
         <v>-0.04</v>
       </c>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I165">
         <v>1.63</v>
@@ -6399,7 +6405,7 @@
         <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C166" s="1">
         <v>45372.694444444402</v>
@@ -6417,7 +6423,7 @@
         <v>-0.116666667</v>
       </c>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I166">
         <v>0.46</v>
@@ -6431,7 +6437,7 @@
         <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C167" s="1">
         <v>45372.401388888902</v>
@@ -6449,7 +6455,7 @@
         <v>-3.6666667E-2</v>
       </c>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I167">
         <v>1.88</v>
@@ -6463,7 +6469,7 @@
         <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C168" s="1">
         <v>45372.401388888902</v>
@@ -6481,7 +6487,7 @@
         <v>-3.6666667E-2</v>
       </c>
       <c r="H168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I168">
         <v>1.84</v>
@@ -6513,7 +6519,7 @@
         <v>-3.6666667E-2</v>
       </c>
       <c r="H169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I169">
         <v>1.77</v>
@@ -6527,7 +6533,7 @@
         <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C170" s="1">
         <v>45393.614583333299</v>
@@ -6545,7 +6551,7 @@
         <v>-5.6666666999999997E-2</v>
       </c>
       <c r="H170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I170">
         <v>1.72</v>
@@ -6559,7 +6565,7 @@
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C171" s="1">
         <v>45393.565972222197</v>
@@ -6577,7 +6583,7 @@
         <v>0.53666666699999999</v>
       </c>
       <c r="H171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I171">
         <v>1.98</v>
@@ -6591,7 +6597,7 @@
         <v>14</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" s="1">
         <v>45393.409722222197</v>
@@ -6609,7 +6615,7 @@
         <v>-0.123333333</v>
       </c>
       <c r="H172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I172">
         <v>0.22</v>
@@ -6623,7 +6629,7 @@
         <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C173" s="1">
         <v>45393.583333333299</v>
@@ -6641,7 +6647,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I173">
         <v>1.84</v>
@@ -6655,7 +6661,7 @@
         <v>14</v>
       </c>
       <c r="B174" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C174" s="1">
         <v>45393.583333333299</v>
@@ -6673,7 +6679,7 @@
         <v>0.06</v>
       </c>
       <c r="H174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I174">
         <v>1.79</v>
@@ -6687,7 +6693,7 @@
         <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C175" s="1">
         <v>45393.431944444397</v>
@@ -6705,7 +6711,7 @@
         <v>-0.185</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I175">
         <v>1.49</v>
@@ -6719,7 +6725,7 @@
         <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C176" s="1">
         <v>45393.462500000001</v>
@@ -6737,7 +6743,7 @@
         <v>-6.25E-2</v>
       </c>
       <c r="H176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I176">
         <v>0.56999999999999995</v>
@@ -6751,7 +6757,7 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C177" s="1">
         <v>45393.395833333299</v>
@@ -6769,7 +6775,7 @@
         <v>0.15333333299999999</v>
       </c>
       <c r="H177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I177">
         <v>2.23</v>
@@ -6783,7 +6789,7 @@
         <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C178" s="1">
         <v>45393.541666666701</v>
@@ -6815,7 +6821,7 @@
         <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C179" s="1">
         <v>45393.541666666701</v>
@@ -6847,7 +6853,7 @@
         <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C180" s="1">
         <v>45393.638888888898</v>
@@ -6865,7 +6871,7 @@
         <v>-7.2499999999999995E-2</v>
       </c>
       <c r="H180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I180">
         <v>0.42</v>
@@ -6879,7 +6885,7 @@
         <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C181" s="1">
         <v>45393.375</v>
@@ -6897,7 +6903,7 @@
         <v>-7.3999999999999996E-2</v>
       </c>
       <c r="H181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I181">
         <v>1.77</v>
@@ -6911,7 +6917,7 @@
         <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C182" s="1">
         <v>45393.375</v>
@@ -6929,7 +6935,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
       <c r="H182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I182">
         <v>1.77</v>
@@ -6975,7 +6981,7 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C184" s="1">
         <v>45434.680555555598</v>
@@ -7007,7 +7013,7 @@
         <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C185" s="1">
         <v>45434.604166666701</v>
@@ -7039,7 +7045,7 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C186" s="1">
         <v>45434.458333333299</v>
@@ -7057,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I186">
         <v>0.95</v>
@@ -7071,7 +7077,7 @@
         <v>15</v>
       </c>
       <c r="B187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C187" s="1">
         <v>45434.628472222197</v>
@@ -7103,7 +7109,7 @@
         <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C188" s="1">
         <v>45434.628472222197</v>
@@ -7135,7 +7141,7 @@
         <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C189" s="1">
         <v>45434.489583333299</v>
@@ -7153,7 +7159,7 @@
         <v>-4.6666667000000002E-2</v>
       </c>
       <c r="H189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I189">
         <v>1.49</v>
@@ -7167,7 +7173,7 @@
         <v>15</v>
       </c>
       <c r="B190" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C190" s="1">
         <v>45434.506944444402</v>
@@ -7185,7 +7191,7 @@
         <v>-4.6666667000000002E-2</v>
       </c>
       <c r="H190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I190">
         <v>0.56999999999999995</v>
@@ -7196,7 +7202,7 @@
         <v>15</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C191" s="1">
         <v>45434.434027777803</v>
@@ -7228,7 +7234,7 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C192" s="1">
         <v>45434.583333333299</v>
@@ -7260,7 +7266,7 @@
         <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C193" s="1">
         <v>45434.583333333299</v>
@@ -7292,7 +7298,7 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C194" s="1">
         <v>45434.697916666701</v>
@@ -7324,7 +7330,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C195" s="1">
         <v>45434.409722222197</v>
@@ -7356,7 +7362,7 @@
         <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C196" s="1">
         <v>45434.409722222197</v>
@@ -7420,7 +7426,7 @@
         <v>16</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C198" s="1">
         <v>45449.510416666701</v>
@@ -7438,7 +7444,7 @@
         <v>-3.6666667E-2</v>
       </c>
       <c r="H198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I198">
         <v>1.65</v>
@@ -7452,7 +7458,7 @@
         <v>16</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C199" s="1">
         <v>45449.475694444402</v>
@@ -7484,7 +7490,7 @@
         <v>16</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" s="1">
         <v>45449.409722222197</v>
@@ -7502,7 +7508,7 @@
         <v>0.30333333299999998</v>
       </c>
       <c r="H200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I200">
         <v>1.44</v>
@@ -7516,7 +7522,7 @@
         <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C201" s="1">
         <v>45449.489583333299</v>
@@ -7548,7 +7554,7 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C202" s="1">
         <v>45449.489583333299</v>
@@ -7580,7 +7586,7 @@
         <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C203" s="1">
         <v>45449.416666666701</v>
@@ -7598,7 +7604,7 @@
         <v>-0.43666666700000001</v>
       </c>
       <c r="H203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I203">
         <v>0.33</v>
@@ -7612,7 +7618,7 @@
         <v>16</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C204" s="1">
         <v>45449.430555555598</v>
@@ -7630,7 +7636,7 @@
         <v>-8.6666667000000003E-2</v>
       </c>
       <c r="H204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I204">
         <v>2.08</v>
@@ -7644,7 +7650,7 @@
         <v>16</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C205" s="1">
         <v>45449.395833333299</v>
@@ -7662,7 +7668,7 @@
         <v>-2.6666667000000002E-2</v>
       </c>
       <c r="H205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I205">
         <v>1.1200000000000001</v>
@@ -7676,7 +7682,7 @@
         <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C206" s="1">
         <v>45449.46875</v>
@@ -7708,7 +7714,7 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C207" s="1">
         <v>45449.46875</v>
@@ -7740,7 +7746,7 @@
         <v>16</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C208" s="1">
         <v>45449.527777777803</v>
@@ -7758,7 +7764,7 @@
         <v>0.203333333</v>
       </c>
       <c r="H208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I208">
         <v>1.25</v>
@@ -7772,7 +7778,7 @@
         <v>16</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C209" s="1">
         <v>45449.385416666701</v>
@@ -7804,7 +7810,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C210" s="1">
         <v>45449.385416666701</v>
@@ -7868,7 +7874,7 @@
         <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C212" s="1">
         <v>45489.5625</v>
@@ -7900,7 +7906,7 @@
         <v>17</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C213" s="1">
         <v>45489.527777777803</v>
@@ -7932,7 +7938,7 @@
         <v>17</v>
       </c>
       <c r="B214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214" s="1">
         <v>45489.430555555598</v>
@@ -7950,7 +7956,7 @@
         <v>5.6666666999999997E-2</v>
       </c>
       <c r="H214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I214">
         <v>1.84</v>
@@ -7961,7 +7967,7 @@
         <v>17</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C215" s="1">
         <v>45489.534722222197</v>
@@ -7979,7 +7985,7 @@
         <v>-3.3333333E-2</v>
       </c>
       <c r="H215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I215">
         <v>1.77</v>
@@ -7993,7 +7999,7 @@
         <v>17</v>
       </c>
       <c r="B216" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C216" s="1">
         <v>45489.534722222197</v>
@@ -8025,7 +8031,7 @@
         <v>17</v>
       </c>
       <c r="B217" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C217" s="1">
         <v>45489.458333333299</v>
@@ -8043,7 +8049,7 @@
         <v>0.32</v>
       </c>
       <c r="H217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I217">
         <v>0.53</v>
@@ -8054,7 +8060,7 @@
         <v>17</v>
       </c>
       <c r="B218" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C218" s="1">
         <v>45489.5</v>
@@ -8086,7 +8092,7 @@
         <v>17</v>
       </c>
       <c r="B219" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C219" s="1">
         <v>45489.402777777803</v>
@@ -8104,7 +8110,7 @@
         <v>0.16</v>
       </c>
       <c r="H219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I219">
         <v>1.57</v>
@@ -8118,7 +8124,7 @@
         <v>17</v>
       </c>
       <c r="B220" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C220" s="1">
         <v>45489.510416666701</v>
@@ -8136,7 +8142,7 @@
         <v>-1.3333332999999999E-2</v>
       </c>
       <c r="H220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I220">
         <v>1.89</v>
@@ -8150,7 +8156,7 @@
         <v>17</v>
       </c>
       <c r="B221" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C221" s="1">
         <v>45489.510416666701</v>
@@ -8168,7 +8174,7 @@
         <v>-3.333333E-3</v>
       </c>
       <c r="H221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I221">
         <v>1.78</v>
@@ -8182,7 +8188,7 @@
         <v>17</v>
       </c>
       <c r="B222" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C222" s="1">
         <v>45489.576388888898</v>
@@ -8200,7 +8206,7 @@
         <v>0.22</v>
       </c>
       <c r="H222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I222">
         <v>1.69</v>
@@ -8214,7 +8220,7 @@
         <v>17</v>
       </c>
       <c r="B223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C223" s="1">
         <v>45489.386111111096</v>
@@ -8246,7 +8252,7 @@
         <v>17</v>
       </c>
       <c r="B224" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C224" s="1">
         <v>45489.386111111096</v>
@@ -8310,7 +8316,7 @@
         <v>18</v>
       </c>
       <c r="B226" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C226" s="1">
         <v>45523.541666666701</v>
@@ -8342,7 +8348,7 @@
         <v>18</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C227" s="1">
         <v>45523.506944444402</v>
@@ -8374,7 +8380,7 @@
         <v>18</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228" s="1">
         <v>45523.430555555598</v>
@@ -8392,7 +8398,7 @@
         <v>-0.05</v>
       </c>
       <c r="H228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I228">
         <v>1.62</v>
@@ -8406,7 +8412,7 @@
         <v>18</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C229" s="1">
         <v>45523.520833333299</v>
@@ -8438,7 +8444,7 @@
         <v>18</v>
       </c>
       <c r="B230" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C230" s="1">
         <v>45523.520833333299</v>
@@ -8470,7 +8476,7 @@
         <v>18</v>
       </c>
       <c r="B231" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C231" s="1">
         <v>45523.440972222197</v>
@@ -8502,7 +8508,7 @@
         <v>18</v>
       </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C232" s="1">
         <v>45523.482638888898</v>
@@ -8534,7 +8540,7 @@
         <v>18</v>
       </c>
       <c r="B233" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C233" s="1">
         <v>45523.392361111102</v>
@@ -8563,7 +8569,7 @@
         <v>18</v>
       </c>
       <c r="B234" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C234" s="1">
         <v>45523.5</v>
@@ -8595,7 +8601,7 @@
         <v>18</v>
       </c>
       <c r="B235" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C235" s="1">
         <v>45523.5</v>
@@ -8627,7 +8633,7 @@
         <v>18</v>
       </c>
       <c r="B236" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C236" s="1">
         <v>45523.5625</v>
@@ -8659,7 +8665,7 @@
         <v>18</v>
       </c>
       <c r="B237" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C237" s="1">
         <v>45523.378472222197</v>
@@ -8691,7 +8697,7 @@
         <v>18</v>
       </c>
       <c r="B238" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C238" s="1">
         <v>45523.378472222197</v>
@@ -8755,7 +8761,7 @@
         <v>19</v>
       </c>
       <c r="B240" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C240" s="1">
         <v>45552.6965277778</v>
@@ -8787,7 +8793,7 @@
         <v>19</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C241" s="1">
         <v>45552.6069444444</v>
@@ -8819,7 +8825,7 @@
         <v>19</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242" s="1">
         <v>45552.454861111102</v>
@@ -8851,7 +8857,7 @@
         <v>19</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C243" s="1">
         <v>45552.620138888902</v>
@@ -8883,7 +8889,7 @@
         <v>19</v>
       </c>
       <c r="B244" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C244" s="1">
         <v>45552.620138888902</v>
@@ -8915,7 +8921,7 @@
         <v>19</v>
       </c>
       <c r="B245" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C245" s="1">
         <v>45552.476388888899</v>
@@ -8947,7 +8953,7 @@
         <v>19</v>
       </c>
       <c r="B246" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C246" s="1">
         <v>45552.491666666698</v>
@@ -8979,7 +8985,7 @@
         <v>19</v>
       </c>
       <c r="B247" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C247" s="1">
         <v>45552.414583333302</v>
@@ -9011,7 +9017,7 @@
         <v>19</v>
       </c>
       <c r="B248" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C248" s="1">
         <v>45552.568055555603</v>
@@ -9043,7 +9049,7 @@
         <v>19</v>
       </c>
       <c r="B249" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C249" s="1">
         <v>45552.568055555603</v>
@@ -9075,7 +9081,7 @@
         <v>19</v>
       </c>
       <c r="B250" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C250" s="1">
         <v>45552.727083333302</v>
@@ -9107,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="B251" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C251" s="1">
         <v>45552.395833333299</v>
@@ -9139,7 +9145,7 @@
         <v>19</v>
       </c>
       <c r="B252" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C252" s="1">
         <v>45552.395833333299</v>
@@ -9187,7 +9193,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="G253">
-        <f t="shared" ref="G253:G270" si="0">E253-F253</f>
+        <f t="shared" ref="G253:G266" si="0">E253-F253</f>
         <v>6.6666666666666541E-3</v>
       </c>
       <c r="H253" t="s">
@@ -9205,7 +9211,7 @@
         <v>20</v>
       </c>
       <c r="B254" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C254" s="1">
         <v>45588.677083333299</v>
@@ -9239,7 +9245,7 @@
         <v>20</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C255" s="1">
         <v>45588.614583333299</v>
@@ -9273,7 +9279,7 @@
         <v>20</v>
       </c>
       <c r="B256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C256" s="1">
         <v>45588.46875</v>
@@ -9307,7 +9313,7 @@
         <v>20</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C257" s="1">
         <v>45588.628472222197</v>
@@ -9341,7 +9347,7 @@
         <v>20</v>
       </c>
       <c r="B258" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C258" s="1">
         <v>45588.628472222197</v>
@@ -9375,7 +9381,7 @@
         <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C259" s="1">
         <v>45588.493055555598</v>
@@ -9409,7 +9415,7 @@
         <v>20</v>
       </c>
       <c r="B260" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C260" s="1">
         <v>45588.510416666701</v>
@@ -9442,7 +9448,7 @@
         <v>20</v>
       </c>
       <c r="B261" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C261" s="1">
         <v>45588.614583333299</v>
@@ -9476,7 +9482,7 @@
         <v>20</v>
       </c>
       <c r="B262" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C262" s="1">
         <v>45588.586805555598</v>
@@ -9510,7 +9516,7 @@
         <v>20</v>
       </c>
       <c r="B263" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C263" s="1">
         <v>45588.586805555598</v>
@@ -9544,7 +9550,7 @@
         <v>20</v>
       </c>
       <c r="B264" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C264" s="1">
         <v>45588.708333333299</v>
@@ -9564,7 +9570,7 @@
         <v>3.2499999999999862E-2</v>
       </c>
       <c r="H264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I264">
         <v>1.83</v>
@@ -9578,7 +9584,7 @@
         <v>20</v>
       </c>
       <c r="B265" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C265" s="1">
         <v>45588.395833333299</v>
@@ -9612,7 +9618,7 @@
         <v>20</v>
       </c>
       <c r="B266" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C266" s="1">
         <v>45588.395833333299</v>
@@ -9649,27 +9655,27 @@
         <v>11</v>
       </c>
       <c r="C267" s="1">
-        <v>45642.645833333336</v>
+        <v>45687.635416666664</v>
       </c>
       <c r="D267" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E267">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="F267">
-        <f>AVERAGE(0.55, 0.53, 0.56)</f>
-        <v>0.54666666666666675</v>
+        <f>AVERAGE(0.67,0.68,0.68)</f>
+        <v>0.67666666666666675</v>
       </c>
       <c r="G267">
-        <f t="shared" si="0"/>
-        <v>-6.6666666666667096E-3</v>
+        <f t="shared" ref="G267:G298" si="1">E267-F267</f>
+        <v>-8.6666666666666781E-2</v>
       </c>
       <c r="H267" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I267">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="J267">
         <v>9</v>
@@ -9680,30 +9686,30 @@
         <v>21</v>
       </c>
       <c r="B268" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C268" s="1">
-        <v>45642.645833333336</v>
+        <v>45687.635416666664</v>
       </c>
       <c r="D268" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E268">
-        <v>0.53</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F268">
-        <f>AVERAGE(0.55, 0.53, 0.56)</f>
-        <v>0.54666666666666675</v>
+        <f>AVERAGE(0.67,0.68,0.68)</f>
+        <v>0.67666666666666675</v>
       </c>
       <c r="G268">
-        <f t="shared" si="0"/>
-        <v>-1.6666666666666718E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.1066666666666668</v>
       </c>
       <c r="H268" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I268">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="J268">
         <v>9</v>
@@ -9714,33 +9720,33 @@
         <v>21</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C269" s="1">
-        <v>45642.645833333336</v>
+        <v>45687.583333333336</v>
       </c>
       <c r="D269" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E269">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="F269">
-        <f>AVERAGE(0.51, 0.51, 0.52)</f>
-        <v>0.51333333333333331</v>
+        <f>AVERAGE(0.54,0.55,0.55)</f>
+        <v>0.54666666666666675</v>
       </c>
       <c r="G269">
-        <f t="shared" si="0"/>
-        <v>-1.3333333333333308E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.11666666666666675</v>
       </c>
       <c r="H269" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I269">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="J269">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
@@ -9748,33 +9754,33 @@
         <v>21</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C270" s="1">
-        <v>45642.426388888889</v>
+        <v>45687.583333333336</v>
       </c>
       <c r="D270" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E270">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F270">
-        <f>AVERAGE(0.55, 0.55, 0.53)</f>
-        <v>0.54333333333333333</v>
+        <f>AVERAGE(0.54,0.55,0.55)</f>
+        <v>0.54666666666666675</v>
       </c>
       <c r="G270">
-        <f t="shared" si="0"/>
-        <v>-1.3333333333333308E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3333333333332993E-3</v>
       </c>
       <c r="H270" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I270">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="J270">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
@@ -9782,33 +9788,33 @@
         <v>21</v>
       </c>
       <c r="B271" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C271" s="1">
-        <v>45642.618055555555</v>
+        <v>45687.467361111114</v>
       </c>
       <c r="D271" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E271">
         <v>0.49</v>
       </c>
       <c r="F271">
-        <f>AVERAGE(0.5, 0.51, 0.52)</f>
-        <v>0.51</v>
+        <f>AVERAGE(0.55,0.53,0.5)</f>
+        <v>0.52666666666666673</v>
       </c>
       <c r="G271">
-        <f t="shared" ref="G271:G273" si="1">E271-F271</f>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.6666666666666736E-2</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
       </c>
       <c r="I271">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="J271">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
@@ -9816,30 +9822,29 @@
         <v>21</v>
       </c>
       <c r="B272" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C272" s="1">
-        <v>45642.618055555555</v>
+        <v>45687.607638888891</v>
       </c>
       <c r="D272" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E272">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F272">
-        <f>AVERAGE(0.5, 0.51, 0.52)</f>
-        <v>0.51</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G272">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>-5.9999999999999942E-2</v>
       </c>
       <c r="H272" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I272">
-        <v>2.17</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J272">
         <v>9</v>
@@ -9850,33 +9855,32 @@
         <v>21</v>
       </c>
       <c r="B273" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C273" s="1">
-        <v>45642.439583333333</v>
+        <v>45687.607638888891</v>
       </c>
       <c r="D273" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E273">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F273">
-        <f>AVERAGE(0.56, 0.57, 0.57)</f>
-        <v>0.56666666666666654</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G273">
         <f t="shared" si="1"/>
-        <v>-2.6666666666666505E-2</v>
+        <v>-3.9999999999999925E-2</v>
       </c>
       <c r="H273" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I273">
-        <v>0.69</v>
+        <v>2.1</v>
       </c>
       <c r="J273">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
@@ -9884,33 +9888,33 @@
         <v>21</v>
       </c>
       <c r="B274" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C274" s="1">
-        <v>45642.466666666667</v>
+        <v>45687.481249999997</v>
       </c>
       <c r="D274" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E274">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="F274">
-        <f>AVERAGE(0.45, 0.51, 0.45)</f>
-        <v>0.47</v>
+        <f>AVERAGE(0.5,0.52,0.51)</f>
+        <v>0.51</v>
       </c>
       <c r="G274">
-        <f t="shared" ref="G274" si="2">E274-F274</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="H274" t="s">
         <v>12</v>
       </c>
       <c r="I274">
-        <v>2.08</v>
+        <v>0.69</v>
       </c>
       <c r="J274">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
@@ -9918,33 +9922,32 @@
         <v>21</v>
       </c>
       <c r="B275" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C275" s="1">
-        <v>45642.401388888888</v>
+        <v>45687.481249999997</v>
       </c>
       <c r="D275" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E275">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F275">
-        <f>AVERAGE(0.38, 0.39, 0.43)</f>
-        <v>0.39999999999999997</v>
+        <v>0.52</v>
       </c>
       <c r="G275">
-        <f t="shared" ref="G275:G280" si="3">E275-F275</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="H275" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I275">
-        <v>1.65</v>
+        <v>2.17</v>
       </c>
       <c r="J275">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -9952,33 +9955,33 @@
         <v>21</v>
       </c>
       <c r="B276" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C276" s="1">
-        <v>45642.517361111109</v>
+        <v>45687.513888888891</v>
       </c>
       <c r="D276" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E276">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="F276">
-        <f>AVERAGE(0.5, 0.49, 0.49)</f>
-        <v>0.49333333333333335</v>
+        <f>AVERAGE(0.48,0.47,0.49)</f>
+        <v>0.48</v>
       </c>
       <c r="G276">
-        <f t="shared" si="3"/>
-        <v>2.6666666666666672E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H276" t="s">
         <v>12</v>
       </c>
       <c r="I276">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="J276">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -9986,33 +9989,33 @@
         <v>21</v>
       </c>
       <c r="B277" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C277" s="1">
-        <v>45642.517361111109</v>
+        <v>45687.415277777778</v>
       </c>
       <c r="D277" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E277">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="F277">
-        <f>AVERAGE(0.5, 0.49, 0.49)</f>
-        <v>0.49333333333333335</v>
+        <f>AVERAGE(0.38,0.37,0.39)</f>
+        <v>0.38000000000000006</v>
       </c>
       <c r="G277">
-        <f t="shared" si="3"/>
-        <v>1.6666666666666663E-2</v>
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-2</v>
       </c>
       <c r="H277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I277">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="J277">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -10020,33 +10023,32 @@
         <v>21</v>
       </c>
       <c r="B278" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C278" s="1">
-        <v>45642.663194444445</v>
+        <v>45687.569444444445</v>
       </c>
       <c r="D278" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E278">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F278">
-        <f>AVERAGE(0.64, 0.65, 0.63)</f>
-        <v>0.64</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G278">
-        <f t="shared" si="3"/>
-        <v>-1.0000000000000009E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="H278" t="s">
         <v>12</v>
       </c>
       <c r="I278">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="J278">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
@@ -10054,30 +10056,29 @@
         <v>21</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C279" s="1">
-        <v>45642.380555555559</v>
+        <v>45687.569444444445</v>
       </c>
       <c r="D279" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E279">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="F279">
-        <f>AVERAGE(0.66, 0.66, 0.65)</f>
-        <v>0.65666666666666673</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G279">
-        <f t="shared" si="3"/>
-        <v>-5.6666666666666754E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="H279" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I279">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="J279">
         <v>10</v>
@@ -10088,32 +10089,640 @@
         <v>21</v>
       </c>
       <c r="B280" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C280" s="1">
-        <v>45642.380555555559</v>
+        <v>45687.654861111114</v>
       </c>
       <c r="D280" s="1">
-        <v>45643</v>
+        <v>45688</v>
       </c>
       <c r="E280">
+        <v>0.73</v>
+      </c>
+      <c r="F280">
+        <v>0.68</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="H280" t="s">
+        <v>14</v>
+      </c>
+      <c r="I280">
+        <v>2.1</v>
+      </c>
+      <c r="J280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>21</v>
+      </c>
+      <c r="B281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281" s="1">
+        <v>45687.388888888891</v>
+      </c>
+      <c r="D281" s="1">
+        <v>45688</v>
+      </c>
+      <c r="E281">
+        <v>0.64</v>
+      </c>
+      <c r="F281">
+        <f>AVERAGE(0.55,0.55,0.54,0.51,0.55)</f>
+        <v>0.54</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+      <c r="I281">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>21</v>
+      </c>
+      <c r="B282" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" s="1">
+        <v>45687.388888888891</v>
+      </c>
+      <c r="D282" s="1">
+        <v>45688</v>
+      </c>
+      <c r="E282">
+        <v>0.65</v>
+      </c>
+      <c r="F282">
+        <f>AVERAGE(0.55,0.55,0.54,0.51,0.55)</f>
+        <v>0.54</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I282">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>22</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" s="1">
+        <v>45714.621527777781</v>
+      </c>
+      <c r="D283" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E283">
+        <v>0.52</v>
+      </c>
+      <c r="F283">
         <v>0.59</v>
       </c>
-      <c r="F280">
-        <f>AVERAGE(0.66, 0.66, 0.65)</f>
-        <v>0.65666666666666673</v>
-      </c>
-      <c r="G280">
-        <f t="shared" si="3"/>
-        <v>-6.6666666666666763E-2</v>
-      </c>
-      <c r="H280" t="s">
-        <v>15</v>
-      </c>
-      <c r="I280">
-        <v>1.81</v>
-      </c>
-      <c r="J280">
+      <c r="G283">
+        <f t="shared" si="1"/>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="H283" t="s">
+        <v>14</v>
+      </c>
+      <c r="I283">
+        <v>1.6</v>
+      </c>
+      <c r="J283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>22</v>
+      </c>
+      <c r="B284" t="s">
+        <v>57</v>
+      </c>
+      <c r="C284" s="1">
+        <v>45714.621527777781</v>
+      </c>
+      <c r="D284" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E284">
+        <v>0.51</v>
+      </c>
+      <c r="F284">
+        <v>0.59</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="1"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
+      </c>
+      <c r="I284">
+        <v>1.49</v>
+      </c>
+      <c r="J284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>22</v>
+      </c>
+      <c r="B285" t="s">
+        <v>124</v>
+      </c>
+      <c r="C285" s="1">
+        <v>45714.51666666667</v>
+      </c>
+      <c r="D285" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E285">
+        <v>0.51</v>
+      </c>
+      <c r="F285">
+        <f>AVERAGE(0.47,0.51,0.47)</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666672E-2</v>
+      </c>
+      <c r="H285" t="s">
+        <v>12</v>
+      </c>
+      <c r="I285">
+        <v>1.83</v>
+      </c>
+      <c r="J285">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>22</v>
+      </c>
+      <c r="B286" t="s">
+        <v>125</v>
+      </c>
+      <c r="C286" s="1">
+        <v>45714.51666666667</v>
+      </c>
+      <c r="D286" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E286">
+        <v>0.51</v>
+      </c>
+      <c r="F286">
+        <f>AVERAGE(0.47,0.51,0.47)</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666672E-2</v>
+      </c>
+      <c r="H286" t="s">
+        <v>12</v>
+      </c>
+      <c r="I286">
+        <v>1.97</v>
+      </c>
+      <c r="J286">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>22</v>
+      </c>
+      <c r="B287" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" s="1">
+        <v>45714.572916666664</v>
+      </c>
+      <c r="D287" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E287">
+        <v>0.43</v>
+      </c>
+      <c r="F287">
+        <f>AVERAGE(0.59,0.59,0.6)</f>
+        <v>0.59333333333333327</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="1"/>
+        <v>-0.16333333333333327</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
+      </c>
+      <c r="I287">
+        <v>1.62</v>
+      </c>
+      <c r="J287">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>22</v>
+      </c>
+      <c r="B288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="1">
+        <v>45714.534722222219</v>
+      </c>
+      <c r="D288" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E288">
+        <v>0.51</v>
+      </c>
+      <c r="F288">
+        <f>AVERAGE(0.55,0.56,0.56)</f>
+        <v>0.55666666666666675</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="1"/>
+        <v>-4.6666666666666745E-2</v>
+      </c>
+      <c r="H288" t="s">
+        <v>14</v>
+      </c>
+      <c r="I288">
+        <v>1.9</v>
+      </c>
+      <c r="J288">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>22</v>
+      </c>
+      <c r="B289" t="s">
+        <v>117</v>
+      </c>
+      <c r="C289" s="1">
+        <v>45714.534722222219</v>
+      </c>
+      <c r="D289" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E289">
+        <v>0.52</v>
+      </c>
+      <c r="F289">
+        <f>AVERAGE(0.55,0.56,0.56)</f>
+        <v>0.55666666666666675</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="1"/>
+        <v>-3.6666666666666736E-2</v>
+      </c>
+      <c r="H289" t="s">
+        <v>14</v>
+      </c>
+      <c r="I289">
+        <v>1.96</v>
+      </c>
+      <c r="J289">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>22</v>
+      </c>
+      <c r="B290" t="s">
+        <v>123</v>
+      </c>
+      <c r="C290" s="1">
+        <v>45714.561805555553</v>
+      </c>
+      <c r="D290" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E290">
+        <v>0.47</v>
+      </c>
+      <c r="F290">
+        <f>AVERAGE(0.59,0.59,0.57)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="1"/>
+        <v>-0.1133333333333334</v>
+      </c>
+      <c r="H290" t="s">
+        <v>14</v>
+      </c>
+      <c r="I290">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J290">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>22</v>
+      </c>
+      <c r="B291" t="s">
+        <v>126</v>
+      </c>
+      <c r="C291" s="1">
+        <v>45714.561805555553</v>
+      </c>
+      <c r="D291" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E291">
+        <v>0.48</v>
+      </c>
+      <c r="F291">
+        <f>AVERAGE(0.59,0.59,0.57)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="1"/>
+        <v>-0.10333333333333339</v>
+      </c>
+      <c r="H291" t="s">
+        <v>14</v>
+      </c>
+      <c r="I291">
+        <v>1.8</v>
+      </c>
+      <c r="J291">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>22</v>
+      </c>
+      <c r="B292" t="s">
+        <v>21</v>
+      </c>
+      <c r="C292" s="1">
+        <v>45714.45416666667</v>
+      </c>
+      <c r="D292" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E292">
+        <v>0.51</v>
+      </c>
+      <c r="F292">
+        <f>AVERAGE(0.54,0.59,0.57)</f>
+        <v>0.56666666666666654</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="1"/>
+        <v>-5.6666666666666532E-2</v>
+      </c>
+      <c r="H292" t="s">
+        <v>14</v>
+      </c>
+      <c r="I292">
+        <v>1.92</v>
+      </c>
+      <c r="J292">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>22</v>
+      </c>
+      <c r="B293" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293" s="1">
+        <v>45714.587500000001</v>
+      </c>
+      <c r="D293" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E293">
+        <v>0.38</v>
+      </c>
+      <c r="F293">
+        <f>AVERAGE(0.52,0.48,0.53)</f>
+        <v>0.51</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="1"/>
+        <v>-0.13</v>
+      </c>
+      <c r="H293" t="s">
+        <v>14</v>
+      </c>
+      <c r="I293">
+        <v>1.02</v>
+      </c>
+      <c r="J293">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>22</v>
+      </c>
+      <c r="B294" t="s">
+        <v>24</v>
+      </c>
+      <c r="C294" s="1">
+        <v>45714.475694444445</v>
+      </c>
+      <c r="D294" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E294">
+        <v>0.47</v>
+      </c>
+      <c r="F294">
+        <f>0.48</f>
+        <v>0.48</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H294" t="s">
+        <v>12</v>
+      </c>
+      <c r="I294">
+        <v>1.89</v>
+      </c>
+      <c r="J294">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>22</v>
+      </c>
+      <c r="B295" t="s">
+        <v>120</v>
+      </c>
+      <c r="C295" s="1">
+        <v>45714.475694444445</v>
+      </c>
+      <c r="D295" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E295">
+        <v>0.47</v>
+      </c>
+      <c r="F295">
+        <f>0.48</f>
+        <v>0.48</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295">
+        <v>1.9</v>
+      </c>
+      <c r="J295">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>22</v>
+      </c>
+      <c r="B296" t="s">
+        <v>25</v>
+      </c>
+      <c r="C296" s="1">
+        <v>45714.643750000003</v>
+      </c>
+      <c r="D296" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E296">
+        <v>0.47</v>
+      </c>
+      <c r="F296">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="1"/>
+        <v>-9.000000000000008E-2</v>
+      </c>
+      <c r="H296" t="s">
+        <v>14</v>
+      </c>
+      <c r="I296">
+        <v>1.82</v>
+      </c>
+      <c r="J296">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>22</v>
+      </c>
+      <c r="B297" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297" s="1">
+        <v>45714.606944444444</v>
+      </c>
+      <c r="D297" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E297">
+        <v>0.48</v>
+      </c>
+      <c r="F297">
+        <f>AVERAGE(0.61,0.6,0.61)</f>
+        <v>0.60666666666666658</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="1"/>
+        <v>-0.12666666666666659</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
+      </c>
+      <c r="I297">
+        <v>1.77</v>
+      </c>
+      <c r="J297">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>22</v>
+      </c>
+      <c r="B298" t="s">
+        <v>65</v>
+      </c>
+      <c r="C298" s="1">
+        <v>45714.606944444444</v>
+      </c>
+      <c r="D298" s="1">
+        <v>45715</v>
+      </c>
+      <c r="E298">
+        <v>0.48</v>
+      </c>
+      <c r="F298">
+        <f>AVERAGE(0.61,0.6,0.61)</f>
+        <v>0.60666666666666658</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="1"/>
+        <v>-0.12666666666666659</v>
+      </c>
+      <c r="H298" t="s">
+        <v>14</v>
+      </c>
+      <c r="I298">
+        <v>1.83</v>
+      </c>
+      <c r="J298">
         <v>10</v>
       </c>
     </row>
